--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H2">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N2">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q2">
-        <v>33.77323209541377</v>
+        <v>0.9275183657576666</v>
       </c>
       <c r="R2">
-        <v>303.959088858724</v>
+        <v>8.347665291818998</v>
       </c>
       <c r="S2">
-        <v>0.01514282518680364</v>
+        <v>0.0006104761040176394</v>
       </c>
       <c r="T2">
-        <v>0.01514282518680364</v>
+        <v>0.0006104761040176392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H3">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q3">
-        <v>275.0831221699035</v>
+        <v>14.06060751636144</v>
       </c>
       <c r="R3">
-        <v>2475.748099529132</v>
+        <v>126.545467647253</v>
       </c>
       <c r="S3">
-        <v>0.1233383769457071</v>
+        <v>0.009254441975062875</v>
       </c>
       <c r="T3">
-        <v>0.1233383769457072</v>
+        <v>0.009254441975062875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H4">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N4">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q4">
-        <v>178.5914805255635</v>
+        <v>9.980133947178334</v>
       </c>
       <c r="R4">
-        <v>1607.323324730072</v>
+        <v>89.82120552460501</v>
       </c>
       <c r="S4">
-        <v>0.08007464496767237</v>
+        <v>0.006568746792060225</v>
       </c>
       <c r="T4">
-        <v>0.08007464496767239</v>
+        <v>0.006568746792060223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>21.275312</v>
       </c>
       <c r="H5">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I5">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J5">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N5">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q5">
-        <v>65.74828099930133</v>
+        <v>35.325974826352</v>
       </c>
       <c r="R5">
-        <v>591.7345289937119</v>
+        <v>317.9337734371679</v>
       </c>
       <c r="S5">
-        <v>0.02947940317623503</v>
+        <v>0.02325092879966869</v>
       </c>
       <c r="T5">
-        <v>0.02947940317623502</v>
+        <v>0.02325092879966869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>21.275312</v>
       </c>
       <c r="H6">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I6">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J6">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O6">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P6">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q6">
-        <v>535.5200344312907</v>
+        <v>535.5200344312906</v>
       </c>
       <c r="R6">
-        <v>4819.680309881616</v>
+        <v>4819.680309881615</v>
       </c>
       <c r="S6">
-        <v>0.2401098669654806</v>
+        <v>0.352469769130611</v>
       </c>
       <c r="T6">
-        <v>0.2401098669654806</v>
+        <v>0.3524697691306111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>21.275312</v>
       </c>
       <c r="H7">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I7">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J7">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N7">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q7">
-        <v>347.6742413193707</v>
+        <v>380.10887287784</v>
       </c>
       <c r="R7">
-        <v>3129.068171874336</v>
+        <v>3420.97985590056</v>
       </c>
       <c r="S7">
-        <v>0.1558858874797696</v>
+        <v>0.2501809046416523</v>
       </c>
       <c r="T7">
-        <v>0.1558858874797696</v>
+        <v>0.2501809046416523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H8">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I8">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J8">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N8">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O8">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P8">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q8">
-        <v>55.00755827774999</v>
+        <v>20.186648007708</v>
       </c>
       <c r="R8">
-        <v>495.0680244997499</v>
+        <v>181.679832069372</v>
       </c>
       <c r="S8">
-        <v>0.02466361041784907</v>
+        <v>0.01328649295138678</v>
       </c>
       <c r="T8">
-        <v>0.02466361041784907</v>
+        <v>0.01328649295138678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H9">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I9">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J9">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O9">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P9">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q9">
-        <v>448.0368011932499</v>
+        <v>306.017158458596</v>
       </c>
       <c r="R9">
-        <v>4032.331210739249</v>
+        <v>2754.154426127364</v>
       </c>
       <c r="S9">
-        <v>0.2008852140226575</v>
+        <v>0.201415055006212</v>
       </c>
       <c r="T9">
-        <v>0.2008852140226575</v>
+        <v>0.201415055006212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H10">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I10">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J10">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N10">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O10">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P10">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q10">
-        <v>290.8777355144999</v>
+        <v>217.20912328986</v>
       </c>
       <c r="R10">
-        <v>2617.8996196305</v>
+        <v>1954.88210960874</v>
       </c>
       <c r="S10">
-        <v>0.130420170837825</v>
+        <v>0.1429631845993286</v>
       </c>
       <c r="T10">
-        <v>0.130420170837825</v>
+        <v>0.1429631845993286</v>
       </c>
     </row>
   </sheetData>
